--- a/sample/copy-cell/dst-07.xlsx
+++ b/sample/copy-cell/dst-07.xlsx
@@ -12,21 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>纯红色</t>
-  </si>
-  <si>
-    <t>斜体</t>
-  </si>
-  <si>
-    <t>粗体</t>
-  </si>
-  <si>
-    <t>下划线</t>
-  </si>
-  <si>
-    <t>微软雅黑</t>
   </si>
 </sst>
 </file>
@@ -34,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -48,36 +36,6 @@
       <u val="none"/>
       <charset val="134"/>
       <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <u val="none"/>
-      <charset val="134"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <charset val="134"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <charset val="134"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <sz val="11.0"/>
-      <u val="none"/>
-      <charset val="134"/>
-      <color rgb="000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,20 +58,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,26 +78,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
